--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema3b-Nrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Sema3b-Nrp2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.222587333333333</v>
+        <v>3.83668</v>
       </c>
       <c r="H2">
-        <v>6.667762</v>
+        <v>11.51004</v>
       </c>
       <c r="I2">
-        <v>0.1134117015526119</v>
+        <v>0.1710971228178894</v>
       </c>
       <c r="J2">
-        <v>0.1134117015526119</v>
+        <v>0.1710971228178894</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>35.31114333333333</v>
+        <v>70.23436</v>
       </c>
       <c r="N2">
-        <v>105.93343</v>
+        <v>210.70308</v>
       </c>
       <c r="O2">
-        <v>0.6187867769880316</v>
+        <v>0.7023186840741513</v>
       </c>
       <c r="P2">
-        <v>0.6187867769880318</v>
+        <v>0.7023186840741513</v>
       </c>
       <c r="Q2">
-        <v>78.48209989818444</v>
+        <v>269.4667643248</v>
       </c>
       <c r="R2">
-        <v>706.33889908366</v>
+        <v>2425.2008789232</v>
       </c>
       <c r="S2">
-        <v>0.07017766127646929</v>
+        <v>0.1201647061463335</v>
       </c>
       <c r="T2">
-        <v>0.07017766127646929</v>
+        <v>0.1201647061463335</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.222587333333333</v>
+        <v>3.83668</v>
       </c>
       <c r="H3">
-        <v>6.667762</v>
+        <v>11.51004</v>
       </c>
       <c r="I3">
-        <v>0.1134117015526119</v>
+        <v>0.1710971228178894</v>
       </c>
       <c r="J3">
-        <v>0.1134117015526119</v>
+        <v>0.1710971228178894</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>19.654086</v>
       </c>
       <c r="O3">
-        <v>0.1148050103785518</v>
+        <v>0.06551129587759326</v>
       </c>
       <c r="P3">
-        <v>0.1148050103785518</v>
+        <v>0.06551129587759325</v>
       </c>
       <c r="Q3">
-        <v>14.56097419728133</v>
+        <v>25.13547955816</v>
       </c>
       <c r="R3">
-        <v>131.048767775532</v>
+        <v>226.21931602344</v>
       </c>
       <c r="S3">
-        <v>0.01302023157379684</v>
+        <v>0.01120879423672766</v>
       </c>
       <c r="T3">
-        <v>0.01302023157379684</v>
+        <v>0.01120879423672766</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.222587333333333</v>
+        <v>3.83668</v>
       </c>
       <c r="H4">
-        <v>6.667762</v>
+        <v>11.51004</v>
       </c>
       <c r="I4">
-        <v>0.1134117015526119</v>
+        <v>0.1710971228178894</v>
       </c>
       <c r="J4">
-        <v>0.1134117015526119</v>
+        <v>0.1710971228178894</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.250702333333333</v>
+        <v>4.268944666666666</v>
       </c>
       <c r="N4">
-        <v>12.752107</v>
+        <v>12.806834</v>
       </c>
       <c r="O4">
-        <v>0.07448862167812857</v>
+        <v>0.04268793224112385</v>
       </c>
       <c r="P4">
-        <v>0.07448862167812859</v>
+        <v>0.04268793224112385</v>
       </c>
       <c r="Q4">
-        <v>9.447557163837109</v>
+        <v>16.37857462370667</v>
       </c>
       <c r="R4">
-        <v>85.02801447453399</v>
+        <v>147.40717161336</v>
       </c>
       <c r="S4">
-        <v>0.008447881330825338</v>
+        <v>0.007303782385501307</v>
       </c>
       <c r="T4">
-        <v>0.008447881330825338</v>
+        <v>0.007303782385501307</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.222587333333333</v>
+        <v>3.83668</v>
       </c>
       <c r="H5">
-        <v>6.667762</v>
+        <v>11.51004</v>
       </c>
       <c r="I5">
-        <v>0.1134117015526119</v>
+        <v>0.1710971228178894</v>
       </c>
       <c r="J5">
-        <v>0.1134117015526119</v>
+        <v>0.1710971228178894</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.951915</v>
+        <v>18.948881</v>
       </c>
       <c r="N5">
-        <v>32.855745</v>
+        <v>56.846643</v>
       </c>
       <c r="O5">
-        <v>0.191919590955288</v>
+        <v>0.1894820878071316</v>
       </c>
       <c r="P5">
-        <v>0.191919590955288</v>
+        <v>0.1894820878071315</v>
       </c>
       <c r="Q5">
-        <v>24.34158755474333</v>
+        <v>72.70079275508</v>
       </c>
       <c r="R5">
-        <v>219.07428799269</v>
+        <v>654.30713479572</v>
       </c>
       <c r="S5">
-        <v>0.02176592737152049</v>
+        <v>0.03241984004932689</v>
       </c>
       <c r="T5">
-        <v>0.02176592737152049</v>
+        <v>0.03241984004932688</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>35.682742</v>
       </c>
       <c r="I6">
-        <v>0.6069263549423107</v>
+        <v>0.5304251323586242</v>
       </c>
       <c r="J6">
-        <v>0.6069263549423106</v>
+        <v>0.5304251323586241</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>35.31114333333333</v>
+        <v>70.23436</v>
       </c>
       <c r="N6">
-        <v>105.93343</v>
+        <v>210.70308</v>
       </c>
       <c r="O6">
-        <v>0.6187867769880316</v>
+        <v>0.7023186840741513</v>
       </c>
       <c r="P6">
-        <v>0.6187867769880318</v>
+        <v>0.7023186840741513</v>
       </c>
       <c r="Q6">
-        <v>419.9994724294511</v>
+        <v>835.3848491383732</v>
       </c>
       <c r="R6">
-        <v>3779.99525186506</v>
+        <v>7518.46364224536</v>
       </c>
       <c r="S6">
-        <v>0.3755580030438466</v>
+        <v>0.3725274809579665</v>
       </c>
       <c r="T6">
-        <v>0.3755580030438466</v>
+        <v>0.3725274809579664</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>35.682742</v>
       </c>
       <c r="I7">
-        <v>0.6069263549423107</v>
+        <v>0.5304251323586242</v>
       </c>
       <c r="J7">
-        <v>0.6069263549423106</v>
+        <v>0.5304251323586241</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>19.654086</v>
       </c>
       <c r="O7">
-        <v>0.1148050103785518</v>
+        <v>0.06551129587759326</v>
       </c>
       <c r="P7">
-        <v>0.1148050103785518</v>
+        <v>0.06551129587759325</v>
       </c>
       <c r="Q7">
         <v>77.92351999820133</v>
@@ -883,10 +883,10 @@
         <v>701.3116799838119</v>
       </c>
       <c r="S7">
-        <v>0.06967818647816862</v>
+        <v>0.0347488377868574</v>
       </c>
       <c r="T7">
-        <v>0.06967818647816861</v>
+        <v>0.03474883778685738</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>35.682742</v>
       </c>
       <c r="I8">
-        <v>0.6069263549423107</v>
+        <v>0.5304251323586242</v>
       </c>
       <c r="J8">
-        <v>0.6069263549423106</v>
+        <v>0.5304251323586241</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.250702333333333</v>
+        <v>4.268944666666666</v>
       </c>
       <c r="N8">
-        <v>12.752107</v>
+        <v>12.806834</v>
       </c>
       <c r="O8">
-        <v>0.07448862167812857</v>
+        <v>0.04268793224112385</v>
       </c>
       <c r="P8">
-        <v>0.07448862167812859</v>
+        <v>0.04268793224112385</v>
       </c>
       <c r="Q8">
-        <v>50.55890489304377</v>
+        <v>50.77588371764755</v>
       </c>
       <c r="R8">
-        <v>455.0301440373939</v>
+        <v>456.9829534588279</v>
       </c>
       <c r="S8">
-        <v>0.04520910763978336</v>
+        <v>0.0226427521091141</v>
       </c>
       <c r="T8">
-        <v>0.04520910763978336</v>
+        <v>0.0226427521091141</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>35.682742</v>
       </c>
       <c r="I9">
-        <v>0.6069263549423107</v>
+        <v>0.5304251323586242</v>
       </c>
       <c r="J9">
-        <v>0.6069263549423106</v>
+        <v>0.5304251323586241</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.951915</v>
+        <v>18.948881</v>
       </c>
       <c r="N9">
-        <v>32.855745</v>
+        <v>56.846643</v>
       </c>
       <c r="O9">
-        <v>0.191919590955288</v>
+        <v>0.1894820878071316</v>
       </c>
       <c r="P9">
-        <v>0.191919590955288</v>
+        <v>0.1894820878071315</v>
       </c>
       <c r="Q9">
-        <v>130.2647857836433</v>
+        <v>225.3826773039007</v>
       </c>
       <c r="R9">
-        <v>1172.38307205279</v>
+        <v>2028.444095735106</v>
       </c>
       <c r="S9">
-        <v>0.1164810577805122</v>
+        <v>0.1005060615046862</v>
       </c>
       <c r="T9">
-        <v>0.1164810577805122</v>
+        <v>0.1005060615046862</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.718678666666666</v>
+        <v>5.772967666666666</v>
       </c>
       <c r="H10">
-        <v>14.156036</v>
+        <v>17.318903</v>
       </c>
       <c r="I10">
-        <v>0.2407794594348195</v>
+        <v>0.2574460621911056</v>
       </c>
       <c r="J10">
-        <v>0.2407794594348195</v>
+        <v>0.2574460621911055</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>35.31114333333333</v>
+        <v>70.23436</v>
       </c>
       <c r="N10">
-        <v>105.93343</v>
+        <v>210.70308</v>
       </c>
       <c r="O10">
-        <v>0.6187867769880316</v>
+        <v>0.7023186840741513</v>
       </c>
       <c r="P10">
-        <v>0.6187867769880318</v>
+        <v>0.7023186840741513</v>
       </c>
       <c r="Q10">
-        <v>166.6219387426089</v>
+        <v>405.4606893690266</v>
       </c>
       <c r="R10">
-        <v>1499.59744868348</v>
+        <v>3649.14620432124</v>
       </c>
       <c r="S10">
-        <v>0.1489911456685925</v>
+        <v>0.1808091796181294</v>
       </c>
       <c r="T10">
-        <v>0.1489911456685925</v>
+        <v>0.1808091796181293</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.718678666666666</v>
+        <v>5.772967666666666</v>
       </c>
       <c r="H11">
-        <v>14.156036</v>
+        <v>17.318903</v>
       </c>
       <c r="I11">
-        <v>0.2407794594348195</v>
+        <v>0.2574460621911056</v>
       </c>
       <c r="J11">
-        <v>0.2407794594348195</v>
+        <v>0.2574460621911055</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>19.654086</v>
       </c>
       <c r="O11">
-        <v>0.1148050103785518</v>
+        <v>0.06551129587759326</v>
       </c>
       <c r="P11">
-        <v>0.1148050103785518</v>
+        <v>0.06551129587759325</v>
       </c>
       <c r="Q11">
-        <v>30.91377210701067</v>
+        <v>37.82080099862866</v>
       </c>
       <c r="R11">
-        <v>278.223948963096</v>
+        <v>340.387208987658</v>
       </c>
       <c r="S11">
-        <v>0.02764268833935655</v>
+        <v>0.01686562515272279</v>
       </c>
       <c r="T11">
-        <v>0.02764268833935655</v>
+        <v>0.01686562515272278</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.718678666666666</v>
+        <v>5.772967666666666</v>
       </c>
       <c r="H12">
-        <v>14.156036</v>
+        <v>17.318903</v>
       </c>
       <c r="I12">
-        <v>0.2407794594348195</v>
+        <v>0.2574460621911056</v>
       </c>
       <c r="J12">
-        <v>0.2407794594348195</v>
+        <v>0.2574460621911055</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.250702333333333</v>
+        <v>4.268944666666666</v>
       </c>
       <c r="N12">
-        <v>12.752107</v>
+        <v>12.806834</v>
       </c>
       <c r="O12">
-        <v>0.07448862167812857</v>
+        <v>0.04268793224112385</v>
       </c>
       <c r="P12">
-        <v>0.07448862167812859</v>
+        <v>0.04268793224112385</v>
       </c>
       <c r="Q12">
-        <v>20.05769841865022</v>
+        <v>24.64447953145577</v>
       </c>
       <c r="R12">
-        <v>180.519285767852</v>
+        <v>221.800315783102</v>
       </c>
       <c r="S12">
-        <v>0.01793533006170457</v>
+        <v>0.01098984005855807</v>
       </c>
       <c r="T12">
-        <v>0.01793533006170457</v>
+        <v>0.01098984005855807</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.718678666666666</v>
+        <v>5.772967666666666</v>
       </c>
       <c r="H13">
-        <v>14.156036</v>
+        <v>17.318903</v>
       </c>
       <c r="I13">
-        <v>0.2407794594348195</v>
+        <v>0.2574460621911056</v>
       </c>
       <c r="J13">
-        <v>0.2407794594348195</v>
+        <v>0.2574460621911055</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.951915</v>
+        <v>18.948881</v>
       </c>
       <c r="N13">
-        <v>32.855745</v>
+        <v>56.846643</v>
       </c>
       <c r="O13">
-        <v>0.191919590955288</v>
+        <v>0.1894820878071316</v>
       </c>
       <c r="P13">
-        <v>0.191919590955288</v>
+        <v>0.1894820878071315</v>
       </c>
       <c r="Q13">
-        <v>51.67856766964666</v>
+        <v>109.3912773325143</v>
       </c>
       <c r="R13">
-        <v>465.10710902682</v>
+        <v>984.521495992629</v>
       </c>
       <c r="S13">
-        <v>0.04621029536516591</v>
+        <v>0.04878141736169532</v>
       </c>
       <c r="T13">
-        <v>0.04621029536516592</v>
+        <v>0.0487814173616953</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.762</v>
+        <v>0.9200940000000001</v>
       </c>
       <c r="H14">
-        <v>2.286</v>
+        <v>2.760282</v>
       </c>
       <c r="I14">
-        <v>0.0388824840702579</v>
+        <v>0.04103168263238089</v>
       </c>
       <c r="J14">
-        <v>0.03888248407025789</v>
+        <v>0.04103168263238088</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>35.31114333333333</v>
+        <v>70.23436</v>
       </c>
       <c r="N14">
-        <v>105.93343</v>
+        <v>210.70308</v>
       </c>
       <c r="O14">
-        <v>0.6187867769880316</v>
+        <v>0.7023186840741513</v>
       </c>
       <c r="P14">
-        <v>0.6187867769880318</v>
+        <v>0.7023186840741513</v>
       </c>
       <c r="Q14">
-        <v>26.90709122</v>
+        <v>64.62221322984</v>
       </c>
       <c r="R14">
-        <v>242.16382098</v>
+        <v>581.59991906856</v>
       </c>
       <c r="S14">
-        <v>0.02405996699912337</v>
+        <v>0.02881731735172196</v>
       </c>
       <c r="T14">
-        <v>0.02405996699912337</v>
+        <v>0.02881731735172195</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.762</v>
+        <v>0.9200940000000001</v>
       </c>
       <c r="H15">
-        <v>2.286</v>
+        <v>2.760282</v>
       </c>
       <c r="I15">
-        <v>0.0388824840702579</v>
+        <v>0.04103168263238089</v>
       </c>
       <c r="J15">
-        <v>0.03888248407025789</v>
+        <v>0.04103168263238088</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>19.654086</v>
       </c>
       <c r="O15">
-        <v>0.1148050103785518</v>
+        <v>0.06551129587759326</v>
       </c>
       <c r="P15">
-        <v>0.1148050103785518</v>
+        <v>0.06551129587759325</v>
       </c>
       <c r="Q15">
-        <v>4.992137844</v>
+        <v>6.027868868028</v>
       </c>
       <c r="R15">
-        <v>44.929240596</v>
+        <v>54.250819812252</v>
       </c>
       <c r="S15">
-        <v>0.004463903987229834</v>
+        <v>0.002688038701285409</v>
       </c>
       <c r="T15">
-        <v>0.004463903987229834</v>
+        <v>0.002688038701285408</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.762</v>
+        <v>0.9200940000000001</v>
       </c>
       <c r="H16">
-        <v>2.286</v>
+        <v>2.760282</v>
       </c>
       <c r="I16">
-        <v>0.0388824840702579</v>
+        <v>0.04103168263238089</v>
       </c>
       <c r="J16">
-        <v>0.03888248407025789</v>
+        <v>0.04103168263238088</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.250702333333333</v>
+        <v>4.268944666666666</v>
       </c>
       <c r="N16">
-        <v>12.752107</v>
+        <v>12.806834</v>
       </c>
       <c r="O16">
-        <v>0.07448862167812857</v>
+        <v>0.04268793224112385</v>
       </c>
       <c r="P16">
-        <v>0.07448862167812859</v>
+        <v>0.04268793224112385</v>
       </c>
       <c r="Q16">
-        <v>3.239035178</v>
+        <v>3.927830374132</v>
       </c>
       <c r="R16">
-        <v>29.151316602</v>
+        <v>35.35047336718799</v>
       </c>
       <c r="S16">
-        <v>0.002896302645815301</v>
+        <v>0.001751557687950374</v>
       </c>
       <c r="T16">
-        <v>0.002896302645815301</v>
+        <v>0.001751557687950374</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.762</v>
+        <v>0.9200940000000001</v>
       </c>
       <c r="H17">
-        <v>2.286</v>
+        <v>2.760282</v>
       </c>
       <c r="I17">
-        <v>0.0388824840702579</v>
+        <v>0.04103168263238089</v>
       </c>
       <c r="J17">
-        <v>0.03888248407025789</v>
+        <v>0.04103168263238088</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.951915</v>
+        <v>18.948881</v>
       </c>
       <c r="N17">
-        <v>32.855745</v>
+        <v>56.846643</v>
       </c>
       <c r="O17">
-        <v>0.191919590955288</v>
+        <v>0.1894820878071316</v>
       </c>
       <c r="P17">
-        <v>0.191919590955288</v>
+        <v>0.1894820878071315</v>
       </c>
       <c r="Q17">
-        <v>8.34535923</v>
+        <v>17.434751714814</v>
       </c>
       <c r="R17">
-        <v>75.10823307</v>
+        <v>156.912765433326</v>
       </c>
       <c r="S17">
-        <v>0.007462310438089397</v>
+        <v>0.007774768891423152</v>
       </c>
       <c r="T17">
-        <v>0.007462310438089397</v>
+        <v>0.007774768891423149</v>
       </c>
     </row>
   </sheetData>
